--- a/biology/Médecine/Lauretta_Bender/Lauretta_Bender.xlsx
+++ b/biology/Médecine/Lauretta_Bender/Lauretta_Bender.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lauretta Bender, née le 9 août 1897 à Butte dans le Montana et décédée le 4 janvier 1987 à Annapolis, est une neuropsychiatre américaine spécialisée dans les enfants. Elle est connue comme créatrice du test Bender-Gestalt[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauretta Bender, née le 9 août 1897 à Butte dans le Montana et décédée le 4 janvier 1987 à Annapolis, est une neuropsychiatre américaine spécialisée dans les enfants. Elle est connue comme créatrice du test Bender-Gestalt.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On attribue à Lauretta Bender des difficultés lors de l'apprentissage de la lecture et d'écriture, corrélés à une dyslexie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On attribue à Lauretta Bender des difficultés lors de l'apprentissage de la lecture et d'écriture, corrélés à une dyslexie.
 D'abord diplômée de l'université de Chicago, elle étudie à l'université d'État de l'Iowa, notamment la psychiatrie au côté de David Wechsler, et y obtient un doctorat en 1926. 
 En 1928 elle est psychiatre au Boston Psychopathic Hospital, en 1929 chercheur associé à la Phipps clinic de l'hôpital Johns-Hopkins, et intègre en 1930 le Bellevue Hospital jusqu'en 1956.
 Lauretta Bender est membre de multiples organisations : l'American Psychiatric Association, l'American Neurological Association, l'Association américaine pour l'avancement de la science et l'American Academy of Child Psychiatry.
@@ -546,12 +560,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant plusieurs années Lauretta Bender se penche sur les causes de la schizophrénie infantile, et reçoit en 1955 pour ces travaux le prix Adolf Meyer Memorial[1].
-Elle postule un lien entre les défauts d'apprentissage du langage et une origine neuro-biologique, liée au délai de maturation des fonctions cérébrales[3], et pour évaluer les performances associées elle met en place un test qu'elle décrit dans : “A Visual Motor Gestalt Test and its Clinical Use”.
-Le test dit Bender-Gestalt
-Ce test créé en 1923 concerne la « maturité visuo-motrice » et vise à dépister les troubles du développement, à évaluer la fonction neurologique ou encore à détecter des lésions cérébrales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant plusieurs années Lauretta Bender se penche sur les causes de la schizophrénie infantile, et reçoit en 1955 pour ces travaux le prix Adolf Meyer Memorial.
+Elle postule un lien entre les défauts d'apprentissage du langage et une origine neuro-biologique, liée au délai de maturation des fonctions cérébrales, et pour évaluer les performances associées elle met en place un test qu'elle décrit dans : “A Visual Motor Gestalt Test and its Clinical Use”.
 </t>
         </is>
       </c>
@@ -577,10 +591,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le test dit Bender-Gestalt</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce test créé en 1923 concerne la « maturité visuo-motrice » et vise à dépister les troubles du développement, à évaluer la fonction neurologique ou encore à détecter des lésions cérébrales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lauretta_Bender</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lauretta_Bender</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) 1935, Gestalt Function In Visual Motor Patterns In Organic Disease Of The Brain, Archives of Neurology and Psychiatry, 33, p. 328.)</t>
         </is>
